--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2064042-39F2-4642-9DA0-1A33C388AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A648F-C8E1-F043-A8A8-00D531E461A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Week</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>L9 continued…</t>
-  </si>
-  <si>
-    <t>**Assessment 1**</t>
-  </si>
-  <si>
-    <t>**Assessment 2**</t>
-  </si>
-  <si>
-    <t>Wrapping up + Project presentations</t>
   </si>
   <si>
     <t>L0-L6 Review</t>
@@ -245,12 +236,48 @@
   <si>
     <t>Buffer class</t>
   </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 1  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: February 26, 2024</t>
+  </si>
+  <si>
+    <t>M: February 12, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 15, 2024</t>
+  </si>
+  <si>
+    <t>M: April 1, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 3  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Wrapping up!</t>
+  </si>
+  <si>
+    <t>**Midterm**</t>
+  </si>
+  <si>
+    <t>**Final**</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [QALMRI] due  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [SPARK] due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,8 +298,15 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +317,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -306,6 +352,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA36"/>
+  <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -604,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -615,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="51">
@@ -626,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16381" s="1" customFormat="1" ht="51">
@@ -637,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -8838,10 +8890,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16381" ht="51">
@@ -8849,10 +8901,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -8860,65 +8912,65 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="51">
+    <row r="8" spans="1:16381" ht="34">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="18">
+    <row r="9" spans="1:16381" ht="51">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16381" ht="18">
+      <c r="A10">
         <v>4</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:16381" ht="51">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16381" ht="18">
+    <row r="11" spans="1:16381" ht="51">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="18">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8926,75 +8978,75 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16381" ht="18">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16381" ht="34">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
       <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16381" ht="34">
+      <c r="A16">
         <v>7</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:16381" ht="18">
-      <c r="A16">
-        <v>8</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -9002,150 +9054,205 @@
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="68">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="51">
-      <c r="A22">
-        <v>11</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
+    <row r="23" spans="1:4" ht="68">
       <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="34">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="34">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51">
-      <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="51">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18">
+    <row r="32" spans="1:4" ht="51">
       <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="51">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37">
         <v>16</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="1"/>
+    <row r="41" spans="1:4">
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9167,32 +9274,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="34">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="34">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="34">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="34">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A648F-C8E1-F043-A8A8-00D531E461A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82930A14-9A3F-0545-B8D3-BBA0B34A1B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>M: February 26, 2024</t>
   </si>
   <si>
-    <t>M: February 12, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [SPARK] due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 8, 2024</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8918,59 +8918,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="34">
+    <row r="8" spans="1:16381" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="51">
+    <row r="9" spans="1:16381" ht="18">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="18">
+    <row r="10" spans="1:16381" ht="51">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" ht="51">
+    <row r="11" spans="1:16381" ht="18">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="18">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8978,10 +8978,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -8989,43 +8989,44 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="18">
+    <row r="15" spans="1:16381" ht="34">
       <c r="A15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16381" ht="34">
+    <row r="16" spans="1:16381" ht="18">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -9034,19 +9035,18 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -9065,68 +9065,68 @@
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18">
+    <row r="22" spans="1:4" ht="68">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="68">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18">
+    <row r="24" spans="1:4" ht="51">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="51">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34">
@@ -9157,10 +9157,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34">
@@ -9212,10 +9212,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51">
@@ -9237,7 +9237,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9248,7 +9248,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82930A14-9A3F-0545-B8D3-BBA0B34A1B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A648F-C8E1-F043-A8A8-00D531E461A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,9 @@
     <t>M: February 26, 2024</t>
   </si>
   <si>
+    <t>M: February 12, 2024</t>
+  </si>
+  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -268,9 +271,6 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [SPARK] due &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>M: April 8, 2024</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8918,59 +8918,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="51">
+    <row r="8" spans="1:16381" ht="34">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="18">
+    <row r="9" spans="1:16381" ht="51">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16381" ht="18">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="51">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16381" ht="18">
+    <row r="11" spans="1:16381" ht="51">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="18">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8978,10 +8978,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -8989,44 +8989,43 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16381" ht="18">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="34">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16381" ht="18">
+    <row r="16" spans="1:16381" ht="34">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -9035,18 +9034,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -9065,68 +9065,68 @@
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="68">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="68">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:4" ht="51">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34">
@@ -9157,10 +9157,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34">
@@ -9212,10 +9212,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51">
@@ -9237,7 +9237,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9248,7 +9248,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A648F-C8E1-F043-A8A8-00D531E461A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528659F4-A777-8F4E-9170-2BF339F1D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,13 +243,7 @@
     <t>M: February 26, 2024</t>
   </si>
   <si>
-    <t>M: February 12, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>M: April 15, 2024</t>
   </si>
   <si>
     <t>M: April 1, 2024</t>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [SPARK] due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 8, 2024</t>
+  </si>
+  <si>
+    <t>M: April 22, 2024</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8918,59 +8918,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="34">
+    <row r="8" spans="1:16381" ht="51">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="51">
+    <row r="9" spans="1:16381" ht="18">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="18">
+    <row r="10" spans="1:16381" ht="51">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16381" ht="51">
+    <row r="11" spans="1:16381" ht="18">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="18">
       <c r="A12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8978,10 +8978,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -8989,43 +8989,44 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="18">
+    <row r="15" spans="1:16381" ht="34">
       <c r="A15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16381" ht="34">
+    <row r="16" spans="1:16381" ht="18">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -9034,19 +9035,18 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -9057,7 +9057,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -9065,68 +9065,68 @@
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18">
+    <row r="22" spans="1:4" ht="68">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="68">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18">
+    <row r="24" spans="1:4" ht="51">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="51">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34">
@@ -9157,32 +9157,32 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18">
+    <row r="31" spans="1:4" ht="34">
       <c r="A31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51">
@@ -9212,10 +9212,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51">
@@ -9237,7 +9237,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9248,7 +9248,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528659F4-A777-8F4E-9170-2BF339F1D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F7D88-E225-5442-BBB1-E3C29CC934ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>L6 continued…</t>
-  </si>
-  <si>
-    <t>L8 continued…</t>
   </si>
   <si>
     <t>L9 continued…</t>
@@ -204,16 +201,7 @@
     <t>**[Project Milestone 4: Project plan/outline due](https://teaching-me.github.io/cognition/articles/modules/Final_projects.html#milestone-4-project-planoutline-0.5-points)**</t>
   </si>
   <si>
-    <t>[L10: Language](https://teaching-me.github.io/cognition/articles/modules/L10_Language.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L11: Social Cognition](https://teaching-me.github.io/cognition/articles/modules/L10_Social_Cognition.html) </t>
-  </si>
-  <si>
     <t>**[Project Milestone 5: First Draft due](https://teaching-me.github.io/cognition/articles/modules/Final_projects.html#milestone-5-first-draft-0.5-points)**</t>
-  </si>
-  <si>
-    <t>[L12: Judgment and Decision Making](https://teaching-me.github.io/cognition/articles/modules/L12_JDM.html) + L7-L12 Review</t>
   </si>
   <si>
     <t>**[Project Milestone 6: Final Project due](https://teaching-me.github.io/cognition/articles/modules/Final_projects.html#milestone-6-final-submission-6-points)**</t>
@@ -225,16 +213,7 @@
     <t>L11 continued…</t>
   </si>
   <si>
-    <t>[L8: Cognitive Models](https://teaching-me.github.io/cognition/articles/modules/L8_Cognitive_Models.html)</t>
-  </si>
-  <si>
-    <t>[L9: Memory II](https://teaching-me.github.io/cognition/articles/modules/L9_Memory_II.html)</t>
-  </si>
-  <si>
     <t>L7 continued…</t>
-  </si>
-  <si>
-    <t>Buffer class</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 1  &lt;/span&gt;&lt;/b&gt;</t>
@@ -272,6 +251,27 @@
   <si>
     <t>M: April 22, 2024</t>
   </si>
+  <si>
+    <t>[L8: Memory II](https://teaching-me.github.io/cognition/articles/modules/L8_Memory_II.html)</t>
+  </si>
+  <si>
+    <t>[L9: Cognitive Models](https://teaching-me.github.io/cognition/articles/modules/L9_Cognitive_Models.html)</t>
+  </si>
+  <si>
+    <t>[L10: Judgment and Decision Making](https://teaching-me.github.io/cognition/articles/modules/L10_JDM.html)</t>
+  </si>
+  <si>
+    <t>L0-L12 review!</t>
+  </si>
+  <si>
+    <t>[L11: Language](https://teaching-me.github.io/cognition/articles/modules/L11_Language.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L12: Social Cognition](https://teaching-me.github.io/cognition/articles/modules/L12_Social_Cognition.html) </t>
+  </si>
+  <si>
+    <t>L12 continued…</t>
+  </si>
 </sst>
 </file>
 
@@ -306,18 +306,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -344,18 +338,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -656,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -667,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="51">
@@ -678,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16381" s="1" customFormat="1" ht="51">
@@ -689,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -8890,10 +8883,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16381" ht="51">
@@ -8901,10 +8894,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -8912,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -8923,10 +8916,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -8934,7 +8927,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -8945,10 +8938,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16381" ht="18">
@@ -8956,7 +8949,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -8967,10 +8960,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -8978,10 +8971,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -8989,10 +8982,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="34">
@@ -9000,10 +8993,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="18">
@@ -9011,10 +9004,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -9023,7 +9016,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -9035,7 +9028,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -9046,7 +9039,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -9057,32 +9050,32 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18">
+    <row r="21" spans="1:4" ht="34">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -9090,10 +9083,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51">
@@ -9101,10 +9094,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -9112,7 +9105,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -9123,10 +9116,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34">
@@ -9134,10 +9127,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
@@ -9145,10 +9138,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -9157,10 +9150,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9168,10 +9161,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34">
@@ -9179,10 +9172,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51">
@@ -9190,10 +9183,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9201,10 +9194,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9212,21 +9205,21 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="51">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9234,10 +9227,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9245,10 +9238,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -9274,32 +9267,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="34">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="34">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="34">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="34">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 2040/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F7D88-E225-5442-BBB1-E3C29CC934ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9698B46-AB65-A84A-BC7B-92EA98560EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Week</t>
   </si>
@@ -225,9 +225,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: April 1, 2024</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 3  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Summary [SPARK] due &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>M: April 8, 2024</t>
   </si>
   <si>
     <t>M: April 22, 2024</t>
@@ -271,6 +265,15 @@
   </si>
   <si>
     <t>L12 continued…</t>
+  </si>
+  <si>
+    <t>Tuesday: April 16, 2024</t>
+  </si>
+  <si>
+    <t>Monday: April 8, 2024</t>
+  </si>
+  <si>
+    <t>Monday: April 30, 2024</t>
   </si>
 </sst>
 </file>
@@ -633,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8985,7 +8988,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="34">
@@ -9064,7 +9067,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -9078,37 +9081,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
+    <row r="23" spans="1:4" ht="51">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="51">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:4" ht="34">
       <c r="A25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34">
@@ -9116,34 +9119,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="34">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="34">
       <c r="A29">
@@ -9153,7 +9156,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9172,10 +9175,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51">
@@ -9186,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9197,7 +9200,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9205,10 +9208,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9219,7 +9222,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9230,7 +9233,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9241,7 +9244,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9698B46-AB65-A84A-BC7B-92EA98560EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C7B76-38FE-2541-BDED-7743F424DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,12 +246,6 @@
     <t>M: April 22, 2024</t>
   </si>
   <si>
-    <t>[L8: Memory II](https://teaching-me.github.io/cognition/articles/modules/L8_Memory_II.html)</t>
-  </si>
-  <si>
-    <t>[L9: Cognitive Models](https://teaching-me.github.io/cognition/articles/modules/L9_Cognitive_Models.html)</t>
-  </si>
-  <si>
     <t>[L10: Judgment and Decision Making](https://teaching-me.github.io/cognition/articles/modules/L10_JDM.html)</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>Monday: April 30, 2024</t>
+  </si>
+  <si>
+    <t>[L8: Cognitive Models](https://teaching-me.github.io/cognition/articles/modules/L8_Cognitive_Models.html)</t>
+  </si>
+  <si>
+    <t>[L9: Memory II](https://teaching-me.github.io/cognition/articles/modules/L9_Memory_II.html)</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9059,7 +9059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34">
+    <row r="21" spans="1:4" ht="51">
       <c r="A21">
         <v>10</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -9081,7 +9081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23">
         <v>11</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9108,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>66</v>
@@ -9122,7 +9122,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9142,7 +9142,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>60</v>
@@ -9156,7 +9156,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9189,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9200,7 +9200,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9208,7 +9208,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
@@ -9222,7 +9222,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C7B76-38FE-2541-BDED-7743F424DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE26BB0-55C1-F647-A650-BADEAC7D5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>[L9: Memory II](https://teaching-me.github.io/cognition/articles/modules/L9_Memory_II.html)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#13835A"&gt; Research Reflection due  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: May 13, 2024</t>
   </si>
 </sst>
 </file>
@@ -636,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9247,6 +9253,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="34">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="41" spans="1:4">
       <c r="D41" s="1"/>
     </row>

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE26BB0-55C1-F647-A650-BADEAC7D5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06197C45-0641-5541-A778-A2985FAEF9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,13 +246,7 @@
     <t>M: April 22, 2024</t>
   </si>
   <si>
-    <t>[L10: Judgment and Decision Making](https://teaching-me.github.io/cognition/articles/modules/L10_JDM.html)</t>
-  </si>
-  <si>
     <t>L0-L12 review!</t>
-  </si>
-  <si>
-    <t>[L11: Language](https://teaching-me.github.io/cognition/articles/modules/L11_Language.html)</t>
   </si>
   <si>
     <t xml:space="preserve">[L12: Social Cognition](https://teaching-me.github.io/cognition/articles/modules/L12_Social_Cognition.html) </t>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>M: May 13, 2024</t>
+  </si>
+  <si>
+    <t>[L10: Language](https://teaching-me.github.io/cognition/articles/modules/L10_Language.html)</t>
+  </si>
+  <si>
+    <t>[L11: Judgment and Decision Making](https://teaching-me.github.io/cognition/articles/modules/L11_JDM.html)</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9073,7 +9073,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -9095,7 +9095,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9114,7 +9114,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>66</v>
@@ -9128,7 +9128,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9148,7 +9148,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>60</v>
@@ -9162,7 +9162,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9195,7 +9195,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9206,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9214,7 +9214,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
@@ -9228,7 +9228,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9258,10 +9258,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/articles/course_docs/spring_2024_schedule.xlsx
+++ b/articles/course_docs/spring_2024_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06197C45-0641-5541-A778-A2985FAEF9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0D07F8-506A-914E-9CED-984BD7060FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="9900" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Week</t>
   </si>
@@ -225,9 +225,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 2  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Monthly Quiz 3  &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Wrapping up!</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
   </si>
   <si>
     <t>Monday: April 8, 2024</t>
-  </si>
-  <si>
-    <t>Monday: April 30, 2024</t>
   </si>
   <si>
     <t>[L8: Cognitive Models](https://teaching-me.github.io/cognition/articles/modules/L8_Cognitive_Models.html)</t>
@@ -640,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA41"/>
+  <dimension ref="A1:XFA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8994,7 +8988,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="34">
@@ -9073,7 +9067,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68">
@@ -9095,7 +9089,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9114,10 +9108,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34">
@@ -9128,7 +9122,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9148,7 +9142,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>60</v>
@@ -9162,7 +9156,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9181,10 +9175,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51">
@@ -9195,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9206,7 +9200,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9214,10 +9208,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9225,47 +9219,36 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
       <c r="A36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18">
+    <row r="37" spans="1:4" ht="34">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="D41" s="1"/>
+    <row r="40" spans="1:4">
+      <c r="D40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
